--- a/Import_SO/Template_SO.xlsx
+++ b/Import_SO/Template_SO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="1550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="1553">
   <si>
     <t>date_order</t>
   </si>
@@ -4672,6 +4672,15 @@
   </si>
   <si>
     <t>อภิชาติ เพ็งสลุง</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -6041,7 +6050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1673"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
@@ -6188,7 +6197,9 @@
       <c r="R2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="3"/>
+      <c r="S2" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T2" s="8">
         <v>0.05</v>
       </c>
@@ -6250,7 +6261,9 @@
       <c r="R3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="3"/>
+      <c r="S3" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T3" s="8">
         <v>0.05</v>
       </c>
@@ -6312,7 +6325,9 @@
       <c r="R4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="3"/>
+      <c r="S4" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T4" s="8">
         <v>0.05</v>
       </c>
@@ -6374,7 +6389,9 @@
       <c r="R5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="3"/>
+      <c r="S5" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T5" s="8">
         <v>0.05</v>
       </c>
@@ -6436,7 +6453,9 @@
       <c r="R6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T6" s="8">
         <v>0.05</v>
       </c>
@@ -6498,7 +6517,9 @@
       <c r="R7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T7" s="8">
         <v>0.05</v>
       </c>
@@ -6560,7 +6581,9 @@
       <c r="R8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S8" s="3"/>
+      <c r="S8" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T8" s="8">
         <v>0.05</v>
       </c>
@@ -6622,7 +6645,9 @@
       <c r="R9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S9" s="3"/>
+      <c r="S9" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T9" s="8">
         <v>0.05</v>
       </c>
@@ -6684,7 +6709,9 @@
       <c r="R10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S10" s="3"/>
+      <c r="S10" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T10" s="7"/>
       <c r="U10" s="3" t="s">
         <v>1492</v>
@@ -6744,7 +6771,9 @@
       <c r="R11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S11" s="3"/>
+      <c r="S11" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T11" s="8">
         <v>0.02</v>
       </c>
@@ -6806,7 +6835,9 @@
       <c r="R12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S12" s="3"/>
+      <c r="S12" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T12" s="8">
         <v>0.05</v>
       </c>
@@ -6868,7 +6899,9 @@
       <c r="R13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S13" s="3"/>
+      <c r="S13" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T13" s="8">
         <v>0.05</v>
       </c>
@@ -6930,7 +6963,9 @@
       <c r="R14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S14" s="3"/>
+      <c r="S14" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T14" s="8">
         <v>0.05</v>
       </c>
@@ -6992,7 +7027,9 @@
       <c r="R15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S15" s="3"/>
+      <c r="S15" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T15" s="8">
         <v>0.05</v>
       </c>
@@ -7054,7 +7091,9 @@
       <c r="R16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S16" s="3"/>
+      <c r="S16" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T16" s="8">
         <v>0.05</v>
       </c>
@@ -7116,7 +7155,9 @@
       <c r="R17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S17" s="3"/>
+      <c r="S17" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T17" s="8">
         <v>0.05</v>
       </c>
@@ -7178,7 +7219,9 @@
       <c r="R18" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S18" s="3"/>
+      <c r="S18" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T18" s="8">
         <v>0.05</v>
       </c>
@@ -7240,7 +7283,9 @@
       <c r="R19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S19" s="3"/>
+      <c r="S19" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T19" s="8">
         <v>0.05</v>
       </c>
@@ -7302,7 +7347,9 @@
       <c r="R20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S20" s="3"/>
+      <c r="S20" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T20" s="8">
         <v>0.05</v>
       </c>
@@ -7364,7 +7411,9 @@
       <c r="R21" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S21" s="3"/>
+      <c r="S21" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T21" s="8">
         <v>0.05</v>
       </c>
@@ -7426,7 +7475,9 @@
       <c r="R22" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S22" s="3"/>
+      <c r="S22" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T22" s="8">
         <v>0.05</v>
       </c>
@@ -7488,7 +7539,9 @@
       <c r="R23" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S23" s="3"/>
+      <c r="S23" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T23" s="8">
         <v>0.05</v>
       </c>
@@ -7550,7 +7603,9 @@
       <c r="R24" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S24" s="3"/>
+      <c r="S24" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T24" s="8">
         <v>0.05</v>
       </c>
@@ -7612,7 +7667,9 @@
       <c r="R25" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S25" s="3"/>
+      <c r="S25" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T25" s="8">
         <v>0.05</v>
       </c>
@@ -7674,7 +7731,9 @@
       <c r="R26" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S26" s="3"/>
+      <c r="S26" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T26" s="8">
         <v>0.05</v>
       </c>
@@ -7736,7 +7795,9 @@
       <c r="R27" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S27" s="3"/>
+      <c r="S27" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T27" s="8">
         <v>0.05</v>
       </c>
@@ -7798,7 +7859,9 @@
       <c r="R28" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S28" s="3"/>
+      <c r="S28" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T28" s="8">
         <v>0.05</v>
       </c>
@@ -7860,7 +7923,9 @@
       <c r="R29" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S29" s="3"/>
+      <c r="S29" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T29" s="8">
         <v>0.05</v>
       </c>
@@ -7922,7 +7987,9 @@
       <c r="R30" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S30" s="3"/>
+      <c r="S30" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T30" s="8">
         <v>0.05</v>
       </c>
@@ -7984,7 +8051,9 @@
       <c r="R31" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S31" s="3"/>
+      <c r="S31" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T31" s="8">
         <v>0.05</v>
       </c>
@@ -8046,7 +8115,9 @@
       <c r="R32" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S32" s="3"/>
+      <c r="S32" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T32" s="8">
         <v>0.05</v>
       </c>
@@ -8108,7 +8179,9 @@
       <c r="R33" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S33" s="3"/>
+      <c r="S33" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T33" s="8">
         <v>0.05</v>
       </c>
@@ -8170,7 +8243,9 @@
       <c r="R34" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S34" s="3"/>
+      <c r="S34" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T34" s="8">
         <v>0.05</v>
       </c>
@@ -8232,7 +8307,9 @@
       <c r="R35" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S35" s="3"/>
+      <c r="S35" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T35" s="8">
         <v>0.05</v>
       </c>
@@ -8294,7 +8371,9 @@
       <c r="R36" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S36" s="3"/>
+      <c r="S36" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T36" s="8">
         <v>0.05</v>
       </c>
@@ -8356,7 +8435,9 @@
       <c r="R37" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S37" s="3"/>
+      <c r="S37" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T37" s="8">
         <v>0.05</v>
       </c>
@@ -8418,7 +8499,9 @@
       <c r="R38" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S38" s="3"/>
+      <c r="S38" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T38" s="8">
         <v>0.05</v>
       </c>
@@ -8480,7 +8563,9 @@
       <c r="R39" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S39" s="3"/>
+      <c r="S39" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T39" s="8">
         <v>0.05</v>
       </c>
@@ -8542,7 +8627,9 @@
       <c r="R40" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S40" s="3"/>
+      <c r="S40" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T40" s="8">
         <v>0.05</v>
       </c>
@@ -8604,7 +8691,9 @@
       <c r="R41" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S41" s="3"/>
+      <c r="S41" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T41" s="8">
         <v>0.05</v>
       </c>
@@ -8666,7 +8755,9 @@
       <c r="R42" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S42" s="3"/>
+      <c r="S42" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T42" s="8">
         <v>0.05</v>
       </c>
@@ -8728,7 +8819,9 @@
       <c r="R43" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S43" s="3"/>
+      <c r="S43" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T43" s="8">
         <v>0.05</v>
       </c>
@@ -8790,7 +8883,9 @@
       <c r="R44" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S44" s="3"/>
+      <c r="S44" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T44" s="8">
         <v>0.05</v>
       </c>
@@ -8852,7 +8947,9 @@
       <c r="R45" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S45" s="3"/>
+      <c r="S45" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T45" s="8">
         <v>0.05</v>
       </c>
@@ -8914,7 +9011,9 @@
       <c r="R46" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S46" s="3"/>
+      <c r="S46" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T46" s="8">
         <v>0.05</v>
       </c>
@@ -8976,7 +9075,9 @@
       <c r="R47" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S47" s="3"/>
+      <c r="S47" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T47" s="8">
         <v>0.05</v>
       </c>
@@ -9038,7 +9139,9 @@
       <c r="R48" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S48" s="3"/>
+      <c r="S48" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T48" s="8">
         <v>0.05</v>
       </c>
@@ -9100,7 +9203,9 @@
       <c r="R49" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S49" s="3"/>
+      <c r="S49" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T49" s="8">
         <v>0.05</v>
       </c>
@@ -9162,7 +9267,9 @@
       <c r="R50" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S50" s="3"/>
+      <c r="S50" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T50" s="8">
         <v>0.05</v>
       </c>
@@ -9224,7 +9331,9 @@
       <c r="R51" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S51" s="3"/>
+      <c r="S51" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T51" s="8">
         <v>0.05</v>
       </c>
@@ -9286,7 +9395,9 @@
       <c r="R52" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S52" s="3"/>
+      <c r="S52" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T52" s="8">
         <v>0.05</v>
       </c>
@@ -9348,7 +9459,9 @@
       <c r="R53" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S53" s="3"/>
+      <c r="S53" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T53" s="8">
         <v>0.05</v>
       </c>
@@ -9410,7 +9523,9 @@
       <c r="R54" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S54" s="3"/>
+      <c r="S54" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T54" s="8">
         <v>0.05</v>
       </c>
@@ -9472,7 +9587,9 @@
       <c r="R55" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S55" s="3"/>
+      <c r="S55" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T55" s="8">
         <v>0.05</v>
       </c>
@@ -9534,7 +9651,9 @@
       <c r="R56" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S56" s="3"/>
+      <c r="S56" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T56" s="7"/>
       <c r="U56" s="3" t="s">
         <v>1538</v>
@@ -9594,7 +9713,9 @@
       <c r="R57" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S57" s="3"/>
+      <c r="S57" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T57" s="8">
         <v>0.05</v>
       </c>
@@ -9656,7 +9777,9 @@
       <c r="R58" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S58" s="3"/>
+      <c r="S58" s="3" t="s">
+        <v>1550</v>
+      </c>
       <c r="T58" s="8">
         <v>0.05</v>
       </c>
@@ -9718,7 +9841,9 @@
       <c r="R59" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="S59" s="30"/>
+      <c r="S59" s="30" t="s">
+        <v>1551</v>
+      </c>
       <c r="T59" s="36">
         <v>0.05</v>
       </c>
@@ -9780,7 +9905,9 @@
       <c r="R60" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="S60" s="30"/>
+      <c r="S60" s="30" t="s">
+        <v>1551</v>
+      </c>
       <c r="T60" s="36">
         <v>0.05</v>
       </c>
@@ -9842,7 +9969,9 @@
       <c r="R61" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="S61" s="30"/>
+      <c r="S61" s="30" t="s">
+        <v>1551</v>
+      </c>
       <c r="T61" s="36">
         <v>0.05</v>
       </c>
@@ -9904,7 +10033,9 @@
       <c r="R62" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="S62" s="30"/>
+      <c r="S62" s="30" t="s">
+        <v>1551</v>
+      </c>
       <c r="T62" s="36">
         <v>0.05</v>
       </c>
@@ -9966,7 +10097,9 @@
       <c r="R63" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="S63" s="30"/>
+      <c r="S63" s="30" t="s">
+        <v>1551</v>
+      </c>
       <c r="T63" s="36">
         <v>0.05</v>
       </c>
@@ -10028,7 +10161,9 @@
       <c r="R64" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="S64" s="30"/>
+      <c r="S64" s="30" t="s">
+        <v>1551</v>
+      </c>
       <c r="T64" s="36">
         <v>0.05</v>
       </c>
@@ -10090,7 +10225,9 @@
       <c r="R65" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="S65" s="30"/>
+      <c r="S65" s="30" t="s">
+        <v>1551</v>
+      </c>
       <c r="T65" s="36">
         <v>0.05</v>
       </c>
@@ -10120,7 +10257,7 @@
       <c r="F66" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="G66" s="28" t="s">
+      <c r="G66" s="3" t="s">
         <v>298</v>
       </c>
       <c r="H66" s="3" t="s">
@@ -10152,7 +10289,9 @@
       <c r="R66" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S66" s="3"/>
+      <c r="S66" s="3" t="s">
+        <v>1552</v>
+      </c>
       <c r="T66" s="7"/>
       <c r="U66" s="3" t="s">
         <v>1548</v>

--- a/Import_SO/Template_SO.xlsx
+++ b/Import_SO/Template_SO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="1553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="1553">
   <si>
     <t>date_order</t>
   </si>
@@ -4251,9 +4251,6 @@
     <t>ส่งที่โรงแรมปทุมวันปริ๊นเซส ปทุมวัน</t>
   </si>
   <si>
-    <t>สินค้าสำเร็จรูป 1</t>
-  </si>
-  <si>
     <t>MA0212201.</t>
   </si>
   <si>
@@ -4677,10 +4674,13 @@
     <t>60</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>40</t>
+  </si>
+  <si>
+    <t>คลังสินค้าสำเร็จรูป 1</t>
+  </si>
+  <si>
+    <t>คลังสินค้าสำเร็จรูป 2</t>
   </si>
 </sst>
 </file>
@@ -4853,7 +4853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4918,6 +4918,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -6050,8 +6055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1673"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6175,7 +6180,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>18</v>
@@ -6192,14 +6197,12 @@
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S2" s="3"/>
       <c r="T2" s="8">
         <v>0.05</v>
       </c>
@@ -6207,7 +6210,7 @@
         <v>16</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6239,14 +6242,14 @@
         <v>17</v>
       </c>
       <c r="J3" s="15" t="s">
+        <v>1551</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>1409</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>1410</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="N3" s="5">
         <v>10</v>
@@ -6256,22 +6259,20 @@
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S3" s="3"/>
       <c r="T3" s="8">
         <v>0.05</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6303,14 +6304,14 @@
         <v>17</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="N4" s="5">
         <v>10</v>
@@ -6320,22 +6321,20 @@
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S4" s="3"/>
       <c r="T4" s="8">
         <v>0.05</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6367,14 +6366,14 @@
         <v>17</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="N5" s="5">
         <v>10</v>
@@ -6384,22 +6383,20 @@
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S5" s="3"/>
       <c r="T5" s="8">
         <v>0.05</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6431,14 +6428,14 @@
         <v>17</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="N6" s="5">
         <v>10</v>
@@ -6448,22 +6445,20 @@
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S6" s="3"/>
       <c r="T6" s="8">
         <v>0.05</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6495,14 +6490,14 @@
         <v>17</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="N7" s="5">
         <v>10</v>
@@ -6512,22 +6507,20 @@
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S7" s="3"/>
       <c r="T7" s="8">
         <v>0.05</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6559,14 +6552,14 @@
         <v>17</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="N8" s="5">
         <v>10</v>
@@ -6576,22 +6569,20 @@
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S8" s="3"/>
       <c r="T8" s="8">
         <v>0.05</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6623,14 +6614,14 @@
         <v>17</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="N9" s="5">
         <v>5</v>
@@ -6640,22 +6631,20 @@
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S9" s="3"/>
       <c r="T9" s="8">
         <v>0.05</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6687,14 +6676,14 @@
         <v>17</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="N10" s="5">
         <v>1</v>
@@ -6704,7 +6693,7 @@
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R10" s="21" t="s">
         <v>37</v>
@@ -6714,10 +6703,10 @@
       </c>
       <c r="T10" s="7"/>
       <c r="U10" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6749,14 +6738,14 @@
         <v>17</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="N11" s="5">
         <v>107</v>
@@ -6766,22 +6755,20 @@
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S11" s="3"/>
       <c r="T11" s="8">
         <v>0.02</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6813,14 +6800,14 @@
         <v>17</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="N12" s="5">
         <v>1</v>
@@ -6830,22 +6817,20 @@
       </c>
       <c r="P12" s="6"/>
       <c r="Q12" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S12" s="3"/>
       <c r="T12" s="8">
         <v>0.05</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6877,14 +6862,14 @@
         <v>17</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="N13" s="5">
         <v>1</v>
@@ -6894,22 +6879,20 @@
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S13" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S13" s="3"/>
       <c r="T13" s="8">
         <v>0.05</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6941,14 +6924,14 @@
         <v>17</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="N14" s="5">
         <v>3</v>
@@ -6958,22 +6941,20 @@
       </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S14" s="3"/>
       <c r="T14" s="8">
         <v>0.05</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7005,14 +6986,14 @@
         <v>17</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="N15" s="5">
         <v>3</v>
@@ -7022,22 +7003,20 @@
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S15" s="3"/>
       <c r="T15" s="8">
         <v>0.05</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7069,14 +7048,14 @@
         <v>17</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="N16" s="5">
         <v>3</v>
@@ -7086,22 +7065,20 @@
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S16" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S16" s="3"/>
       <c r="T16" s="8">
         <v>0.05</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7133,14 +7110,14 @@
         <v>17</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="N17" s="5">
         <v>3</v>
@@ -7150,22 +7127,20 @@
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S17" s="3"/>
       <c r="T17" s="8">
         <v>0.05</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7197,14 +7172,14 @@
         <v>17</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="N18" s="5">
         <v>3</v>
@@ -7214,22 +7189,20 @@
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R18" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S18" s="3"/>
       <c r="T18" s="8">
         <v>0.05</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7261,14 +7234,14 @@
         <v>17</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="N19" s="5">
         <v>3</v>
@@ -7278,22 +7251,20 @@
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S19" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S19" s="3"/>
       <c r="T19" s="8">
         <v>0.05</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7325,14 +7296,14 @@
         <v>17</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="N20" s="5">
         <v>3</v>
@@ -7342,22 +7313,20 @@
       </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S20" s="3"/>
       <c r="T20" s="8">
         <v>0.05</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7389,14 +7358,14 @@
         <v>17</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="N21" s="5">
         <v>3</v>
@@ -7406,22 +7375,20 @@
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R21" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S21" s="3"/>
       <c r="T21" s="8">
         <v>0.05</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7453,14 +7420,14 @@
         <v>17</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="N22" s="5">
         <v>1</v>
@@ -7470,22 +7437,20 @@
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R22" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S22" s="3"/>
       <c r="T22" s="8">
         <v>0.05</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7517,14 +7482,14 @@
         <v>17</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="N23" s="5">
         <v>3</v>
@@ -7534,22 +7499,20 @@
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R23" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S23" s="3"/>
       <c r="T23" s="8">
         <v>0.05</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7581,14 +7544,14 @@
         <v>17</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="N24" s="5">
         <v>3</v>
@@ -7598,22 +7561,20 @@
       </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R24" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S24" s="3"/>
       <c r="T24" s="8">
         <v>0.05</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7645,14 +7606,14 @@
         <v>17</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="N25" s="5">
         <v>3</v>
@@ -7662,22 +7623,20 @@
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R25" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S25" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S25" s="3"/>
       <c r="T25" s="8">
         <v>0.05</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7709,14 +7668,14 @@
         <v>17</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="N26" s="5">
         <v>3</v>
@@ -7726,22 +7685,20 @@
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R26" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S26" s="3"/>
       <c r="T26" s="8">
         <v>0.05</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7773,14 +7730,14 @@
         <v>17</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="N27" s="5">
         <v>3</v>
@@ -7790,22 +7747,20 @@
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R27" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S27" s="3"/>
       <c r="T27" s="8">
         <v>0.05</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7837,14 +7792,14 @@
         <v>17</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="N28" s="5">
         <v>3</v>
@@ -7854,22 +7809,20 @@
       </c>
       <c r="P28" s="6"/>
       <c r="Q28" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R28" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S28" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S28" s="3"/>
       <c r="T28" s="8">
         <v>0.05</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7901,14 +7854,14 @@
         <v>17</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="N29" s="5">
         <v>3</v>
@@ -7918,22 +7871,20 @@
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R29" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S29" s="3"/>
       <c r="T29" s="8">
         <v>0.05</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7965,14 +7916,14 @@
         <v>17</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="N30" s="5">
         <v>3</v>
@@ -7982,22 +7933,20 @@
       </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R30" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S30" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S30" s="3"/>
       <c r="T30" s="8">
         <v>0.05</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8029,14 +7978,14 @@
         <v>17</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="N31" s="5">
         <v>3</v>
@@ -8046,22 +7995,20 @@
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R31" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S31" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S31" s="3"/>
       <c r="T31" s="8">
         <v>0.05</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8093,14 +8040,14 @@
         <v>17</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="N32" s="5">
         <v>1</v>
@@ -8110,22 +8057,20 @@
       </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R32" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S32" s="3"/>
       <c r="T32" s="8">
         <v>0.05</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8157,14 +8102,14 @@
         <v>17</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="N33" s="5">
         <v>3</v>
@@ -8174,22 +8119,20 @@
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R33" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S33" s="3"/>
       <c r="T33" s="8">
         <v>0.05</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8221,14 +8164,14 @@
         <v>17</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="N34" s="5">
         <v>1</v>
@@ -8238,22 +8181,20 @@
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R34" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S34" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S34" s="3"/>
       <c r="T34" s="8">
         <v>0.05</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8285,14 +8226,14 @@
         <v>17</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="N35" s="5">
         <v>2</v>
@@ -8302,22 +8243,20 @@
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R35" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S35" s="3"/>
       <c r="T35" s="8">
         <v>0.05</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8349,14 +8288,14 @@
         <v>17</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="N36" s="5">
         <v>1</v>
@@ -8366,22 +8305,20 @@
       </c>
       <c r="P36" s="6"/>
       <c r="Q36" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R36" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S36" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S36" s="3"/>
       <c r="T36" s="8">
         <v>0.05</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8413,14 +8350,14 @@
         <v>17</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="N37" s="5">
         <v>2</v>
@@ -8430,22 +8367,20 @@
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R37" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S37" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S37" s="3"/>
       <c r="T37" s="8">
         <v>0.05</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8477,14 +8412,14 @@
         <v>17</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="N38" s="5">
         <v>6</v>
@@ -8494,22 +8429,20 @@
       </c>
       <c r="P38" s="5"/>
       <c r="Q38" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R38" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S38" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S38" s="3"/>
       <c r="T38" s="8">
         <v>0.05</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8541,7 +8474,7 @@
         <v>17</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>18</v>
@@ -8558,22 +8491,20 @@
       </c>
       <c r="P39" s="6"/>
       <c r="Q39" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R39" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S39" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S39" s="3"/>
       <c r="T39" s="8">
         <v>0.05</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8605,14 +8536,14 @@
         <v>17</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="N40" s="5">
         <v>21</v>
@@ -8622,22 +8553,20 @@
       </c>
       <c r="P40" s="5"/>
       <c r="Q40" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R40" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S40" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S40" s="3"/>
       <c r="T40" s="8">
         <v>0.05</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8669,14 +8598,14 @@
         <v>17</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="N41" s="5">
         <v>21</v>
@@ -8686,22 +8615,20 @@
       </c>
       <c r="P41" s="5"/>
       <c r="Q41" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R41" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S41" s="3"/>
       <c r="T41" s="8">
         <v>0.05</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8733,14 +8660,14 @@
         <v>17</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="N42" s="5">
         <v>21</v>
@@ -8750,22 +8677,20 @@
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R42" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S42" s="3"/>
       <c r="T42" s="8">
         <v>0.05</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8797,14 +8722,14 @@
         <v>17</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="N43" s="5">
         <v>21</v>
@@ -8814,22 +8739,20 @@
       </c>
       <c r="P43" s="5"/>
       <c r="Q43" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R43" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S43" s="3"/>
       <c r="T43" s="8">
         <v>0.05</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8861,14 +8784,14 @@
         <v>17</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="N44" s="5">
         <v>21</v>
@@ -8878,22 +8801,20 @@
       </c>
       <c r="P44" s="5"/>
       <c r="Q44" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R44" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S44" s="3"/>
       <c r="T44" s="8">
         <v>0.05</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8925,14 +8846,14 @@
         <v>17</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="N45" s="5">
         <v>21</v>
@@ -8942,22 +8863,20 @@
       </c>
       <c r="P45" s="5"/>
       <c r="Q45" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R45" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S45" s="3"/>
       <c r="T45" s="8">
         <v>0.05</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8989,14 +8908,14 @@
         <v>17</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="N46" s="5">
         <v>21</v>
@@ -9006,22 +8925,20 @@
       </c>
       <c r="P46" s="5"/>
       <c r="Q46" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R46" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S46" s="3"/>
       <c r="T46" s="8">
         <v>0.05</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9053,14 +8970,14 @@
         <v>17</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="N47" s="5">
         <v>21</v>
@@ -9070,22 +8987,20 @@
       </c>
       <c r="P47" s="5"/>
       <c r="Q47" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R47" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S47" s="3"/>
       <c r="T47" s="8">
         <v>0.05</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9117,14 +9032,14 @@
         <v>17</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="N48" s="5">
         <v>21</v>
@@ -9134,22 +9049,20 @@
       </c>
       <c r="P48" s="5"/>
       <c r="Q48" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R48" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S48" s="3"/>
       <c r="T48" s="8">
         <v>0.05</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9181,14 +9094,14 @@
         <v>17</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="N49" s="5">
         <v>21</v>
@@ -9198,22 +9111,20 @@
       </c>
       <c r="P49" s="5"/>
       <c r="Q49" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R49" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S49" s="3"/>
       <c r="T49" s="8">
         <v>0.05</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9245,14 +9156,14 @@
         <v>17</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="N50" s="5">
         <v>21</v>
@@ -9262,22 +9173,20 @@
       </c>
       <c r="P50" s="5"/>
       <c r="Q50" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R50" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S50" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S50" s="3"/>
       <c r="T50" s="8">
         <v>0.05</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9309,14 +9218,14 @@
         <v>17</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="N51" s="5">
         <v>21</v>
@@ -9326,22 +9235,20 @@
       </c>
       <c r="P51" s="5"/>
       <c r="Q51" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R51" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S51" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S51" s="3"/>
       <c r="T51" s="8">
         <v>0.05</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9373,14 +9280,14 @@
         <v>17</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="N52" s="5">
         <v>21</v>
@@ -9390,22 +9297,20 @@
       </c>
       <c r="P52" s="5"/>
       <c r="Q52" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R52" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S52" s="3"/>
       <c r="T52" s="8">
         <v>0.05</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9437,14 +9342,14 @@
         <v>17</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="N53" s="5">
         <v>35</v>
@@ -9454,22 +9359,20 @@
       </c>
       <c r="P53" s="5"/>
       <c r="Q53" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R53" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S53" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S53" s="3"/>
       <c r="T53" s="8">
         <v>0.05</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9501,14 +9404,14 @@
         <v>17</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="N54" s="5">
         <v>6</v>
@@ -9518,22 +9421,20 @@
       </c>
       <c r="P54" s="6"/>
       <c r="Q54" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R54" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S54" s="3"/>
       <c r="T54" s="8">
         <v>0.05</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9565,14 +9466,14 @@
         <v>17</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="N55" s="5">
         <v>1</v>
@@ -9582,22 +9483,20 @@
       </c>
       <c r="P55" s="6"/>
       <c r="Q55" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R55" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S55" s="3" t="s">
-        <v>1550</v>
-      </c>
+      <c r="S55" s="3"/>
       <c r="T55" s="8">
         <v>0.05</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9629,14 +9528,14 @@
         <v>17</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="N56" s="5">
         <v>2</v>
@@ -9646,148 +9545,144 @@
       </c>
       <c r="P56" s="6"/>
       <c r="Q56" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R56" s="21" t="s">
         <v>37</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="T56" s="7"/>
       <c r="U56" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="V56" s="3" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" s="37" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="30" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B57" s="31">
+        <v>45750</v>
+      </c>
+      <c r="C57" s="38">
+        <v>45792</v>
+      </c>
+      <c r="D57" s="32">
+        <v>25206</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I57" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="33" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K57" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N57" s="34">
+        <v>21</v>
+      </c>
+      <c r="O57" s="39">
+        <v>2300</v>
+      </c>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="35" t="s">
+        <v>1548</v>
+      </c>
+      <c r="R57" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="S57" s="30"/>
+      <c r="T57" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="U57" s="30" t="s">
         <v>1538</v>
       </c>
-      <c r="V56" s="3" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+      <c r="V57" s="30" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" s="37" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="30" t="s">
         <v>1385</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B58" s="31">
         <v>45750</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C58" s="38">
         <v>45792</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D58" s="32">
         <v>25206</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H57" s="3" t="s">
+      <c r="E58" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="H58" s="30" t="s">
         <v>1407</v>
       </c>
-      <c r="I57" s="15" t="s">
+      <c r="I58" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="15" t="s">
+      <c r="J58" s="33" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K58" s="30" t="s">
         <v>1409</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N57" s="5">
+      <c r="L58" s="30"/>
+      <c r="M58" s="30" t="s">
+        <v>1446</v>
+      </c>
+      <c r="N58" s="34">
         <v>21</v>
       </c>
-      <c r="O57" s="6">
-        <v>2300</v>
-      </c>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="7" t="s">
-        <v>1549</v>
-      </c>
-      <c r="R57" s="21" t="s">
+      <c r="O58" s="39">
+        <v>1350</v>
+      </c>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="35" t="s">
+        <v>1548</v>
+      </c>
+      <c r="R58" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>1550</v>
-      </c>
-      <c r="T57" s="8">
+      <c r="S58" s="30"/>
+      <c r="T58" s="36">
         <v>0.05</v>
       </c>
-      <c r="U57" s="3" t="s">
+      <c r="U58" s="30" t="s">
         <v>1539</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B58" s="17">
-        <v>45750</v>
-      </c>
-      <c r="C58" s="19">
-        <v>45792</v>
-      </c>
-      <c r="D58" s="4">
-        <v>25206</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>1407</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="15" t="s">
-        <v>1409</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>1410</v>
-      </c>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3" t="s">
-        <v>1447</v>
-      </c>
-      <c r="N58" s="5">
-        <v>21</v>
-      </c>
-      <c r="O58" s="6">
-        <v>1350</v>
-      </c>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="7" t="s">
-        <v>1549</v>
-      </c>
-      <c r="R58" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>1550</v>
-      </c>
-      <c r="T58" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>1540</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>1484</v>
+      <c r="V58" s="30" t="s">
+        <v>1483</v>
       </c>
     </row>
     <row r="59" spans="1:22" s="37" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9819,14 +9714,14 @@
         <v>17</v>
       </c>
       <c r="J59" s="33" t="s">
-        <v>1409</v>
+        <v>1552</v>
       </c>
       <c r="K59" s="30" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="L59" s="30"/>
       <c r="M59" s="30" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="N59" s="34">
         <v>21</v>
@@ -9841,17 +9736,15 @@
       <c r="R59" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="S59" s="30" t="s">
-        <v>1551</v>
-      </c>
+      <c r="S59" s="30"/>
       <c r="T59" s="36">
         <v>0.05</v>
       </c>
       <c r="U59" s="30" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="V59" s="30" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="60" spans="1:22" s="37" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9883,14 +9776,14 @@
         <v>17</v>
       </c>
       <c r="J60" s="33" t="s">
-        <v>1409</v>
+        <v>1552</v>
       </c>
       <c r="K60" s="30" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="L60" s="30"/>
       <c r="M60" s="30" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="N60" s="34">
         <v>14</v>
@@ -9905,17 +9798,15 @@
       <c r="R60" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="S60" s="30" t="s">
-        <v>1551</v>
-      </c>
+      <c r="S60" s="30"/>
       <c r="T60" s="36">
         <v>0.05</v>
       </c>
       <c r="U60" s="30" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="V60" s="30" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="61" spans="1:22" s="37" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9947,14 +9838,14 @@
         <v>17</v>
       </c>
       <c r="J61" s="33" t="s">
-        <v>1409</v>
+        <v>1552</v>
       </c>
       <c r="K61" s="30" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="L61" s="30"/>
       <c r="M61" s="30" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="N61" s="34">
         <v>21</v>
@@ -9969,17 +9860,15 @@
       <c r="R61" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="S61" s="30" t="s">
-        <v>1551</v>
-      </c>
+      <c r="S61" s="30"/>
       <c r="T61" s="36">
         <v>0.05</v>
       </c>
       <c r="U61" s="30" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="V61" s="30" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="62" spans="1:22" s="37" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10011,14 +9900,14 @@
         <v>17</v>
       </c>
       <c r="J62" s="33" t="s">
-        <v>1409</v>
+        <v>1552</v>
       </c>
       <c r="K62" s="30" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="L62" s="30"/>
       <c r="M62" s="30" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="N62" s="34">
         <v>21</v>
@@ -10033,17 +9922,15 @@
       <c r="R62" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="S62" s="30" t="s">
-        <v>1551</v>
-      </c>
+      <c r="S62" s="30"/>
       <c r="T62" s="36">
         <v>0.05</v>
       </c>
       <c r="U62" s="30" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="V62" s="30" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="63" spans="1:22" s="37" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10075,14 +9962,14 @@
         <v>17</v>
       </c>
       <c r="J63" s="33" t="s">
-        <v>1409</v>
+        <v>1552</v>
       </c>
       <c r="K63" s="30" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="L63" s="30"/>
       <c r="M63" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="N63" s="34">
         <v>21</v>
@@ -10097,17 +9984,15 @@
       <c r="R63" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="S63" s="30" t="s">
-        <v>1551</v>
-      </c>
+      <c r="S63" s="30"/>
       <c r="T63" s="36">
         <v>0.05</v>
       </c>
       <c r="U63" s="30" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="V63" s="30" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="64" spans="1:22" s="37" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10139,14 +10024,14 @@
         <v>17</v>
       </c>
       <c r="J64" s="33" t="s">
-        <v>1409</v>
+        <v>1552</v>
       </c>
       <c r="K64" s="30" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="L64" s="30"/>
       <c r="M64" s="30" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="N64" s="34">
         <v>21</v>
@@ -10161,17 +10046,15 @@
       <c r="R64" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="S64" s="30" t="s">
-        <v>1551</v>
-      </c>
+      <c r="S64" s="30"/>
       <c r="T64" s="36">
         <v>0.05</v>
       </c>
       <c r="U64" s="30" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="V64" s="30" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="65" spans="1:22" s="37" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10203,14 +10086,14 @@
         <v>17</v>
       </c>
       <c r="J65" s="33" t="s">
-        <v>1409</v>
+        <v>1552</v>
       </c>
       <c r="K65" s="30" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="L65" s="30"/>
       <c r="M65" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="N65" s="34">
         <v>7</v>
@@ -10225,17 +10108,15 @@
       <c r="R65" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="S65" s="30" t="s">
-        <v>1551</v>
-      </c>
+      <c r="S65" s="30"/>
       <c r="T65" s="36">
         <v>0.05</v>
       </c>
       <c r="U65" s="30" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="V65" s="30" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10267,14 +10148,14 @@
         <v>17</v>
       </c>
       <c r="J66" s="15" t="s">
-        <v>1409</v>
+        <v>1551</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="N66" s="5">
         <v>50</v>
@@ -10284,20 +10165,18 @@
       </c>
       <c r="P66" s="5"/>
       <c r="Q66" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R66" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>1552</v>
-      </c>
+      <c r="S66" s="3"/>
       <c r="T66" s="7"/>
       <c r="U66" s="3" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -49015,7 +48894,7 @@
   </sheetPr>
   <dimension ref="A1:C451"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
